--- a/tests/resources/sample_malformed.xlsx
+++ b/tests/resources/sample_malformed.xlsx
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
-  <si>
-    <t xml:space="preserve">processor_full_name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t xml:space="preserve">project_name</t>
   </si>
@@ -55,9 +52,6 @@
     <t xml:space="preserve"> acq-datetime</t>
   </si>
   <si>
-    <t xml:space="preserve">Anna Apple</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ephys Platform</t>
   </si>
   <si>
@@ -77,9 +71,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 2020-10-10 14:10:10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">John Smith</t>
   </si>
   <si>
     <t xml:space="preserve">Behavior Platform</t>
@@ -217,13 +208,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -256,104 +250,92 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="n">
+        <v>123454</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="I2" s="1" t="n">
-        <v>123454</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="n">
+        <v>123456</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="1" t="n">
-        <v>123456</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>123456</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="1" t="n">
-        <v>123456</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
